--- a/testdata/LoginData.xlsx
+++ b/testdata/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnoCredits\Projects\AUG22\HybridDrivenAug2022\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F9EF1B-4FB1-4EF4-9E20-6B4FD49855F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D924DF1-4AD9-4AED-A699-4BB5F66CF435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="1080" windowWidth="11772" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
